--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C4C410-47BE-824F-9728-E6A8BB52F8DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FBD845-D3F2-8C40-9EF2-9A3A3313D6EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Wake</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>1:00 of lifting, not intense at all</t>
+  </si>
+  <si>
+    <t>Okay</t>
   </si>
 </sst>
 </file>
@@ -90,9 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +414,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,6 +468,12 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FBD845-D3F2-8C40-9EF2-9A3A3313D6EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03BE2BE-4B60-3249-BCCC-4FA411ADD17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Wake</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Okay</t>
+  </si>
+  <si>
+    <t>Night Of</t>
+  </si>
+  <si>
+    <t>Out of bed &lt;1 min?</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -93,10 +102,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,415 +430,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F375733F-5394-DB4F-AED7-03DF12AEFD30}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="22.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>44219</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1875</v>
+        <v>0.90625</v>
       </c>
       <c r="D2" s="1">
-        <f>(24-B2)+C2</f>
-        <v>24.1875</v>
-      </c>
-      <c r="F2" t="s">
+        <v>0.1875</v>
+      </c>
+      <c r="E2" s="1">
+        <f>(24-C2)+D2</f>
+        <v>23.28125</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>44220</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D31" si="0">(24-B3)+C3</f>
-        <v>24.1875</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+        <v>0.1875</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E31" si="0">(24-C3)+D3</f>
+        <v>24.1875</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>44221</v>
+      </c>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+        <v>0.1875</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>44222</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+        <v>0.1875</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>44223</v>
+      </c>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+        <v>0.1875</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>44224</v>
+      </c>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+        <v>0.1875</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>44225</v>
+      </c>
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+        <v>0.1875</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+        <v>0.1875</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>44227</v>
+      </c>
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+        <v>0.1875</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+        <v>0.1875</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>44229</v>
+      </c>
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+        <v>0.1875</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>44230</v>
+      </c>
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
+        <v>0.1875</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>44231</v>
+      </c>
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
+        <v>0.1875</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>44232</v>
+      </c>
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
+        <v>0.1875</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>44233</v>
+      </c>
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+        <v>0.1875</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>44234</v>
+      </c>
+      <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+        <v>0.1875</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>44235</v>
+      </c>
+      <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+        <v>0.1875</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>44236</v>
+      </c>
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+        <v>0.1875</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>44237</v>
+      </c>
+      <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+        <v>0.1875</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>44238</v>
+      </c>
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+        <v>0.1875</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>44239</v>
+      </c>
+      <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+        <v>0.1875</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>44240</v>
+      </c>
+      <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+        <v>0.1875</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>44241</v>
+      </c>
+      <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+        <v>0.1875</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>44242</v>
+      </c>
+      <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+        <v>0.1875</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>44243</v>
+      </c>
+      <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+        <v>0.1875</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>44244</v>
+      </c>
+      <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+        <v>0.1875</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>44245</v>
+      </c>
+      <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+        <v>0.1875</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>44246</v>
+      </c>
+      <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+        <v>0.1875</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>44247</v>
+      </c>
+      <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+        <v>0.1875</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>44248</v>
+      </c>
+      <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="1">
-        <v>0.1875</v>
-      </c>
       <c r="D31" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>24.1875</v>
       </c>

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03BE2BE-4B60-3249-BCCC-4FA411ADD17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FBAE4B-1615-6041-8E74-BDEA554FD816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
   <sheets>
     <sheet name="waking_up_same_time" sheetId="1" r:id="rId1"/>
+    <sheet name="dunbar.html" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">dunbar.html!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">dunbar.html!$B$2:$B$21</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Wake</t>
   </si>
@@ -45,16 +50,10 @@
     <t>Exercise Notes</t>
   </si>
   <si>
-    <t>Hydration</t>
-  </si>
-  <si>
     <t>Last meal time</t>
   </si>
   <si>
     <t>1:00 of lifting, not intense at all</t>
-  </si>
-  <si>
-    <t>Okay</t>
   </si>
   <si>
     <t>Night Of</t>
@@ -65,13 +64,43 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>Hydration (1 bad - 5 good)</t>
+  </si>
+  <si>
+    <t>30:00 endurance, easy</t>
+  </si>
+  <si>
+    <t>0:30</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>0:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -102,9 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -114,6 +143,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -131,6 +163,1311 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Piecewise</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dunbar.html!$A$1:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dunbar.html!$B$1:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C80-A243-B271-23CD10E50C3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dunbar's Number</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dunbar.html!$A$1:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dunbar.html!$C$1:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C80-A243-B271-23CD10E50C3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="930758640"/>
+        <c:axId val="877851200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="930758640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours per week spent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> socializing</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877851200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="877851200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Relationships</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930758640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D732FBC4-8FD9-6147-BE0F-9696F783C01D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,7 +1770,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,15 +1779,15 @@
     <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
     <col min="5" max="6" width="22.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -465,19 +1802,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -498,19 +1835,19 @@
         <v>23.28125</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2.0833333333333332E-2</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
+      <c r="J2" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -520,14 +1857,31 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.86458333333333337</v>
+      </c>
       <c r="D3" s="1">
         <v>0.1875</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E31" si="0">(24-C3)+D3</f>
-        <v>24.1875</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>23.322916666666668</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -536,12 +1890,30 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="D4" s="1">
         <v>0.1875</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <f>(24-C4)+D4</f>
+        <v>23.770833333333332</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -551,12 +1923,30 @@
       <c r="B5" s="2">
         <v>4</v>
       </c>
+      <c r="C5" s="1">
+        <v>0.4375</v>
+      </c>
       <c r="D5" s="1">
         <v>0.1875</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <f>(24-C5)+D5</f>
+        <v>23.75</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -952,4 +2342,561 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF26E21C-BD8D-FB4D-AE37-26E2E0C23703}">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>150</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+      <c r="M2">
+        <v>0.8</v>
+      </c>
+      <c r="N2">
+        <f>1.24*M2^3.39</f>
+        <v>0.58196483191564052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+      <c r="M3">
+        <v>0.79</v>
+      </c>
+      <c r="N3">
+        <f>1.24*M3^3.39</f>
+        <v>0.55767031138934831</v>
+      </c>
+      <c r="O3">
+        <f>STDEV(N2:N37)</f>
+        <v>27.008125897038532</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(N2:N37)</f>
+        <v>16.410462336790882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="M4">
+        <v>0.84</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N37" si="0">1.24*M4^3.39</f>
+        <v>0.68663899666061312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="M5">
+        <v>1.23</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2.5014971530036663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="M6">
+        <v>0.96</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1.0797449093520424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="M7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1.7129429063387887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="M8">
+        <v>1.24</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>2.5711131990832143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
+      <c r="M9">
+        <v>1.08</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1.6096380001189681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="M10">
+        <v>1.28</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>2.8632777751174814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>150</v>
+      </c>
+      <c r="M11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1.7663085990526568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="M12">
+        <v>1.02</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1.3260999767263864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>150</v>
+      </c>
+      <c r="M13">
+        <v>0.94</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1.0053681180009788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="M14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>1.6607241959832946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="M15">
+        <v>1.52</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>5.1270959885137399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>B15+25</f>
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="M16">
+        <v>1.43</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>4.1687980035018501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B21" si="1">B16+25</f>
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="M17">
+        <v>1.62</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>6.3632294622174985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="M18">
+        <v>1.61</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>6.2310524207048079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="M19">
+        <v>1.59</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>5.9725244540097862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="C20">
+        <v>150</v>
+      </c>
+      <c r="M20">
+        <v>1.65</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>6.771614964299947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="C21">
+        <v>150</v>
+      </c>
+      <c r="M21">
+        <v>1.78</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>8.7568012539735669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>1.82</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>9.4419933545674866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>2.35</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>22.456482876704101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>18.516473099015265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>2.36</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>22.782080139845011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>2.21</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>18.235240393623368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>2.6</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>31.63598309381419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>2.38</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>23.443236540975064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>2.76</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>38.734992245818837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>2.44</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>25.507811353943083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>2.96</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>49.10215870319518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>14.13407118081037</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>1.75</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>8.26648096813142</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>18.516473099015265</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>13.198472465562727</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>3.22</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>65.321039929498127</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>148.16954915998795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FBAE4B-1615-6041-8E74-BDEA554FD816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D644EF00-3800-BB47-93E3-FC78183C035B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
@@ -16,9 +16,15 @@
     <sheet name="waking_up_same_time" sheetId="1" r:id="rId1"/>
     <sheet name="dunbar.html" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">dunbar.html!$A$2:$A$21</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">dunbar.html!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">[1]Sheet1!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">[1]Sheet1!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">[1]Sheet1!$C$2:$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Wake</t>
   </si>
@@ -93,6 +99,9 @@
   </si>
   <si>
     <t>0:00</t>
+  </si>
+  <si>
+    <t>30:00 lifting, 1:15 hard riding</t>
   </si>
 </sst>
 </file>
@@ -182,8 +191,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -201,9 +210,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>dunbar.html!$A$1:$A$21</c:f>
               <c:numCache>
@@ -274,8 +295,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>dunbar.html!$B$1:$B$21</c:f>
               <c:numCache>
@@ -346,7 +367,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -372,7 +393,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>dunbar.html!$A$1:$A$21</c:f>
               <c:numCache>
@@ -443,8 +464,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>dunbar.html!$C$1:$C$21</c:f>
               <c:numCache>
@@ -515,7 +536,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -531,14 +552,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="930758640"/>
         <c:axId val="877851200"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="930758640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -559,12 +581,7 @@
         <c:minorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -669,10 +686,11 @@
         </c:txPr>
         <c:crossAx val="877851200"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="877851200"/>
         <c:scaling>
@@ -1470,6 +1488,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1770,7 +1801,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1891,14 +1922,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D4" s="1">
         <v>0.1875</v>
       </c>
       <c r="E4" s="1">
         <f>(24-C4)+D4</f>
-        <v>23.770833333333332</v>
+        <v>23.270833333333332</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -1924,14 +1955,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>0.4375</v>
+        <v>0.9375</v>
       </c>
       <c r="D5" s="1">
         <v>0.1875</v>
       </c>
       <c r="E5" s="1">
         <f>(24-C5)+D5</f>
-        <v>23.75</v>
+        <v>23.25</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1956,12 +1987,30 @@
       <c r="B6" s="2">
         <v>5</v>
       </c>
+      <c r="C6" s="1">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="D6" s="1">
         <v>0.1875</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <v>24.177083333333332</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1977,6 +2026,15 @@
       <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>24.1875</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2349,7 +2407,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2391,7 +2449,7 @@
         <v>0.8</v>
       </c>
       <c r="N2">
-        <f>1.24*M2^3.39</f>
+        <f>1.24*(M2^3.39)</f>
         <v>0.58196483191564052</v>
       </c>
     </row>
@@ -2409,7 +2467,7 @@
         <v>0.79</v>
       </c>
       <c r="N3">
-        <f>1.24*M3^3.39</f>
+        <f t="shared" ref="N3:N37" si="0">1.24*(M3^3.39)</f>
         <v>0.55767031138934831</v>
       </c>
       <c r="O3">
@@ -2435,8 +2493,12 @@
         <v>0.84</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N37" si="0">1.24*M4^3.39</f>
+        <f t="shared" si="0"/>
         <v>0.68663899666061312</v>
+      </c>
+      <c r="O4">
+        <f>O3*2</f>
+        <v>54.016251794077064</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D644EF00-3800-BB47-93E3-FC78183C035B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C321CD0-232F-9E4E-9572-65E426C39D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Wake</t>
   </si>
@@ -1801,7 +1801,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2020,12 +2020,21 @@
       <c r="B7" s="2">
         <v>6</v>
       </c>
+      <c r="C7" s="1">
+        <v>0.92708333333333337</v>
+      </c>
       <c r="D7" s="1">
         <v>0.1875</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <v>23.260416666666668</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C321CD0-232F-9E4E-9572-65E426C39D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73819665-A48F-8A4A-9E0A-B25377E6D7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Wake</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Day (beginning night of Jan 23)</t>
   </si>
   <si>
     <t>Reading Time</t>
@@ -102,6 +99,12 @@
   </si>
   <si>
     <t>30:00 lifting, 1:15 hard riding</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>1:30:00 riding, fairly intense</t>
   </si>
 </sst>
 </file>
@@ -1801,27 +1804,29 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="6" width="22.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1833,19 +1838,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1866,13 +1871,13 @@
         <v>23.28125</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="3">
         <v>0.72916666666666663</v>
@@ -1899,13 +1904,13 @@
         <v>23.322916666666668</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3">
         <v>0.72916666666666663</v>
@@ -1932,13 +1937,13 @@
         <v>23.270833333333332</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
       </c>
       <c r="I4" s="3">
         <v>0.78125</v>
@@ -1965,13 +1970,13 @@
         <v>23.25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3">
         <v>0.77083333333333337</v>
@@ -1998,13 +2003,13 @@
         <v>24.177083333333332</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
       <c r="I6" s="3">
         <v>0.89583333333333337</v>
@@ -2031,13 +2036,13 @@
         <v>23.260416666666668</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
       </c>
       <c r="I7" s="3">
         <v>0.77083333333333337</v>
@@ -2053,12 +2058,30 @@
       <c r="B8" s="2">
         <v>7</v>
       </c>
+      <c r="C8" s="1">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="D8" s="1">
         <v>0.1875</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <v>24.177083333333332</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2432,16 +2455,16 @@
         <v>150</v>
       </c>
       <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73819665-A48F-8A4A-9E0A-B25377E6D7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE73490-2195-B64E-BB72-5521A855D0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Wake</t>
   </si>
@@ -104,7 +104,10 @@
     <t>Day</t>
   </si>
   <si>
-    <t>1:30:00 riding, fairly intense</t>
+    <t>90:00 riding, fairly intense</t>
+  </si>
+  <si>
+    <t>60:00 lifting, 90:00 walking</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1807,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2091,12 +2094,30 @@
       <c r="B9" s="2">
         <v>8</v>
       </c>
+      <c r="C9" s="1">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D9" s="1">
         <v>0.1875</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <v>23.270833333333332</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE73490-2195-B64E-BB72-5521A855D0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C44587-FEA5-3744-B67D-DA7B41DCB632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Wake</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>60:00 lifting, 90:00 walking</t>
+  </si>
+  <si>
+    <t>120:00 riding</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1810,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2127,12 +2130,27 @@
       <c r="B10" s="2">
         <v>9</v>
       </c>
+      <c r="C10" s="1">
+        <v>0.875</v>
+      </c>
       <c r="D10" s="1">
-        <v>0.1875</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <v>23.395833333333332</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C44587-FEA5-3744-B67D-DA7B41DCB632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD67EC-6E9D-DB4D-B067-D6AE57A57D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Wake</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>120:00 riding</t>
+  </si>
+  <si>
+    <t>Ease of Waking (1 bad - 5 good)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>75:00 lifting, 30:00 rowing</t>
+  </si>
+  <si>
+    <t>0:45</t>
   </si>
 </sst>
 </file>
@@ -1807,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F375733F-5394-DB4F-AED7-03DF12AEFD30}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1821,13 +1839,14 @@
     <col min="4" max="4" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1847,19 +1866,22 @@
         <v>8</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44219</v>
       </c>
@@ -1880,19 +1902,22 @@
         <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44220</v>
       </c>
@@ -1913,19 +1938,22 @@
         <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44221</v>
       </c>
@@ -1946,19 +1974,22 @@
         <v>9</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>0.78125</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44222</v>
       </c>
@@ -1979,19 +2010,22 @@
         <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44223</v>
       </c>
@@ -2012,19 +2046,22 @@
         <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>0.89583333333333337</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44224</v>
       </c>
@@ -2045,19 +2082,22 @@
         <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44225</v>
       </c>
@@ -2078,19 +2118,22 @@
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44226</v>
       </c>
@@ -2111,19 +2154,22 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44227</v>
       </c>
@@ -2140,50 +2186,98 @@
         <f t="shared" si="0"/>
         <v>23.395833333333332</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44228</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
+      <c r="C11" s="1">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D11" s="1">
         <v>0.1875</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23.270833333333332</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44229</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
+      <c r="C12" s="1">
+        <v>0.875</v>
+      </c>
       <c r="D12" s="1">
         <v>0.1875</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23.3125</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44230</v>
       </c>
@@ -2198,7 +2292,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44231</v>
       </c>
@@ -2213,7 +2307,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44232</v>
       </c>
@@ -2228,7 +2322,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44233</v>
       </c>

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD67EC-6E9D-DB4D-B067-D6AE57A57D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C37320-7A1C-7B48-84E5-C5431881676F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="25600" windowHeight="14080" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
   <sheets>
     <sheet name="waking_up_same_time" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Wake</t>
   </si>
@@ -1828,7 +1828,8 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2284,12 +2285,33 @@
       <c r="B13" s="2">
         <v>12</v>
       </c>
+      <c r="C13" s="1">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D13" s="1">
         <v>0.1875</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <v>23.270833333333332</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2299,12 +2321,33 @@
       <c r="B14" s="2">
         <v>13</v>
       </c>
+      <c r="C14" s="1">
+        <v>0.92708333333333337</v>
+      </c>
       <c r="D14" s="1">
         <v>0.1875</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <v>23.260416666666668</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C37320-7A1C-7B48-84E5-C5431881676F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B852E1FD-6860-B447-815E-7E38414B91E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="25600" windowHeight="14080" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
+    <workbookView xWindow="25600" yWindow="-5900" windowWidth="25600" windowHeight="14080" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
   <sheets>
     <sheet name="waking_up_same_time" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>Wake</t>
   </si>
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +183,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1828,8 +1834,8 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1842,7 +1848,7 @@
     <col min="6" max="6" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -1908,7 +1914,7 @@
       <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="3">
@@ -1944,7 +1950,7 @@
       <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="3">
@@ -1980,7 +1986,7 @@
       <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="3">
@@ -2016,7 +2022,7 @@
       <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="3">
@@ -2052,7 +2058,7 @@
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="3">
@@ -2088,7 +2094,7 @@
       <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="3">
@@ -2124,7 +2130,7 @@
       <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="3">
@@ -2160,7 +2166,7 @@
       <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="3">
@@ -2196,7 +2202,7 @@
       <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="3">
@@ -2232,7 +2238,7 @@
       <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="3">
@@ -2268,7 +2274,7 @@
       <c r="H12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="3">
@@ -2304,7 +2310,7 @@
       <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="3">
@@ -2340,7 +2346,7 @@
       <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="3">
@@ -2357,12 +2363,33 @@
       <c r="B15" s="2">
         <v>14</v>
       </c>
+      <c r="C15" s="1">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D15" s="1">
         <v>0.1875</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <v>23.291666666666668</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B852E1FD-6860-B447-815E-7E38414B91E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD342A0F-7FB4-0847-B9CD-C37A7735FD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-5900" windowWidth="25600" windowHeight="14080" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
   <sheets>
     <sheet name="waking_up_same_time" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Wake</t>
   </si>
@@ -113,9 +113,6 @@
     <t>120:00 riding</t>
   </si>
   <si>
-    <t>Ease of Waking (1 bad - 5 good)</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -129,6 +126,12 @@
   </si>
   <si>
     <t>0:45</t>
+  </si>
+  <si>
+    <t>75:00 lifting, 20:00 riding</t>
+  </si>
+  <si>
+    <t>Ease of Waking (1 hard - 5 easy)</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1838,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1873,7 +1876,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>3</v>
@@ -1909,7 +1912,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>12</v>
@@ -1945,7 +1948,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>12</v>
@@ -1981,7 +1984,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>13</v>
@@ -2017,7 +2020,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>19</v>
@@ -2053,7 +2056,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>13</v>
@@ -2089,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>19</v>
@@ -2125,7 +2128,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>19</v>
@@ -2161,7 +2164,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>13</v>
@@ -2233,7 +2236,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>12</v>
@@ -2269,13 +2272,13 @@
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J12" s="3">
         <v>0.79166666666666663</v>
@@ -2305,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>19</v>
@@ -2341,7 +2344,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>13</v>
@@ -2377,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>12</v>
@@ -2399,12 +2402,33 @@
       <c r="B16" s="2">
         <v>15</v>
       </c>
+      <c r="C16" s="1">
+        <v>0.94791666666666663</v>
+      </c>
       <c r="D16" s="1">
-        <v>0.1875</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
+        <v>23.28125</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD342A0F-7FB4-0847-B9CD-C37A7735FD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C33243-7AAB-BE41-956E-A99DF9C23FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Wake</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Ease of Waking (1 hard - 5 easy)</t>
+  </si>
+  <si>
+    <t>2:15:00 riding</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2431,22 +2434,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>44234</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
       </c>
+      <c r="C17" s="1">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D17" s="1">
-        <v>0.1875</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23.736111111111111</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>44235</v>
       </c>
@@ -2461,7 +2485,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>44236</v>
       </c>
@@ -2476,7 +2500,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>44237</v>
       </c>
@@ -2491,7 +2515,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>44238</v>
       </c>
@@ -2506,7 +2530,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>44239</v>
       </c>
@@ -2521,7 +2545,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>44240</v>
       </c>
@@ -2536,7 +2560,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>44241</v>
       </c>
@@ -2551,7 +2575,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>44242</v>
       </c>
@@ -2566,7 +2590,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>44243</v>
       </c>
@@ -2581,7 +2605,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>44244</v>
       </c>
@@ -2596,7 +2620,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>44245</v>
       </c>
@@ -2611,7 +2635,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>44246</v>
       </c>
@@ -2626,7 +2650,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>44247</v>
       </c>
@@ -2641,7 +2665,7 @@
         <v>24.1875</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>44248</v>
       </c>

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C33243-7AAB-BE41-956E-A99DF9C23FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9E85E-9F94-0F41-A070-9849887CFA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="25600" windowHeight="14080" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
   <sheets>
     <sheet name="waking_up_same_time" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>Wake</t>
   </si>
@@ -101,9 +101,6 @@
     <t>30:00 lifting, 1:15 hard riding</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>90:00 riding, fairly intense</t>
   </si>
   <si>
@@ -135,6 +132,18 @@
   </si>
   <si>
     <t>2:15:00 riding</t>
+  </si>
+  <si>
+    <t>75:00 lifting, 20:00 Airdyne</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20:000 Airdyne</t>
+  </si>
+  <si>
+    <t>75:00 lifting</t>
   </si>
 </sst>
 </file>
@@ -1837,848 +1846,778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F375733F-5394-DB4F-AED7-03DF12AEFD30}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44219</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
+      <c r="B2" s="1">
+        <v>0.90625</v>
       </c>
       <c r="C2" s="1">
-        <v>0.90625</v>
+        <v>0.1875</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E2" s="1">
-        <f>(24-C2)+D2</f>
+        <f>(24-B2)+C2</f>
         <v>23.28125</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3">
+      <c r="I2" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="K2" s="2">
+      <c r="J2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44220</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D22" si="0">(24-B3)+C3</f>
+        <v>23.322916666666668</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E31" si="0">(24-C3)+D3</f>
-        <v>23.322916666666668</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44221</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>0.91666666666666663</v>
       </c>
       <c r="C4" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.1875</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E4" s="1">
-        <f>(24-C4)+D4</f>
+        <f>(24-B4)+C4</f>
         <v>23.270833333333332</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3">
+      <c r="I4" s="3">
         <v>0.78125</v>
       </c>
-      <c r="K4" s="2">
+      <c r="J4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44222</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="D5" s="1">
+        <f>(24-B5)+C5</f>
+        <v>23.25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="J5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E5" s="1">
-        <f>(24-C5)+D5</f>
-        <v>23.25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="K5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44223</v>
       </c>
-      <c r="B6" s="2">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0416666666666666E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>24.177083333333332</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3">
+      <c r="I6" s="3">
         <v>0.89583333333333337</v>
       </c>
-      <c r="K6" s="2">
+      <c r="J6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44224</v>
       </c>
-      <c r="B7" s="2">
-        <v>6</v>
+      <c r="B7" s="1">
+        <v>0.92708333333333337</v>
       </c>
       <c r="C7" s="1">
-        <v>0.92708333333333337</v>
+        <v>0.1875</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>23.260416666666668</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3">
+      <c r="I7" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="K7" s="2">
+      <c r="J7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44225</v>
       </c>
-      <c r="B8" s="2">
-        <v>7</v>
+      <c r="B8" s="1">
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0416666666666666E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>24.177083333333332</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="K8" s="2">
+      <c r="J8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44226</v>
       </c>
-      <c r="B9" s="2">
-        <v>8</v>
+      <c r="B9" s="1">
+        <v>0.91666666666666663</v>
       </c>
       <c r="C9" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.1875</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>23.270833333333332</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="K9" s="2">
+      <c r="J9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44227</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>23.395833333333332</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>23.395833333333332</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="H10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="K10" s="2">
+      <c r="J10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44228</v>
       </c>
-      <c r="B11" s="2">
-        <v>10</v>
+      <c r="B11" s="1">
+        <v>0.91666666666666663</v>
       </c>
       <c r="C11" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.1875</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>23.270833333333332</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="3">
+      <c r="I11" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="K11" s="2">
+      <c r="J11" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44229</v>
       </c>
-      <c r="B12" s="2">
-        <v>11</v>
+      <c r="B12" s="1">
+        <v>0.875</v>
       </c>
       <c r="C12" s="1">
-        <v>0.875</v>
+        <v>0.1875</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>23.3125</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="3">
         <v>0.79166666666666663</v>
       </c>
-      <c r="K12" s="2">
+      <c r="J12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44230</v>
       </c>
-      <c r="B13" s="2">
-        <v>12</v>
+      <c r="B13" s="1">
+        <v>0.91666666666666663</v>
       </c>
       <c r="C13" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.1875</v>
       </c>
       <c r="D13" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>23.270833333333332</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="3">
+      <c r="I13" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="K13" s="2">
+      <c r="J13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44231</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>23.260416666666668</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.92708333333333337</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>23.260416666666668</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
         <v>0.75</v>
       </c>
-      <c r="K14" s="2">
+      <c r="J14" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44232</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>23.291666666666668</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>23.291666666666668</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="3">
         <v>0.79166666666666663</v>
       </c>
-      <c r="K15" s="2">
+      <c r="J15" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44233</v>
       </c>
-      <c r="B16" s="2">
-        <v>15</v>
+      <c r="B16" s="1">
+        <v>0.94791666666666663</v>
       </c>
       <c r="C16" s="1">
-        <v>0.94791666666666663</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="D16" s="1">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>23.28125</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="H16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="3">
         <v>0.79166666666666663</v>
       </c>
-      <c r="K16" s="2">
+      <c r="J16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>44234</v>
       </c>
-      <c r="B17" s="2">
-        <v>16</v>
+      <c r="B17" s="1">
+        <v>0.95833333333333337</v>
       </c>
       <c r="C17" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="D17" s="1">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>23.736111111111111</v>
-      </c>
-      <c r="F17" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>23.236111111111111</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="H17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="K17" s="2">
+      <c r="J17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>44235</v>
       </c>
-      <c r="B18" s="2">
-        <v>17</v>
+      <c r="B18" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.1875</v>
       </c>
       <c r="D18" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>23.3125</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>44236</v>
       </c>
-      <c r="B19" s="2">
-        <v>18</v>
+      <c r="B19" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.19444444444444445</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>23.277777777777775</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>44237</v>
       </c>
-      <c r="B20" s="2">
-        <v>19</v>
+      <c r="B20" s="1">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.1875</v>
       </c>
       <c r="D20" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>23.260416666666668</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>44238</v>
       </c>
-      <c r="B21" s="2">
-        <v>20</v>
+      <c r="B21" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.1875</v>
       </c>
       <c r="D21" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>23.25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>44239</v>
       </c>
-      <c r="B22" s="2">
-        <v>21</v>
+      <c r="B22" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.1875</v>
       </c>
       <c r="D22" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>44240</v>
-      </c>
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>44241</v>
-      </c>
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>44242</v>
-      </c>
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>44243</v>
-      </c>
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>44244</v>
-      </c>
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>44245</v>
-      </c>
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>44246</v>
-      </c>
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>44247</v>
-      </c>
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>44248</v>
-      </c>
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>24.1875</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>23.3125</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2690,7 +2629,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/research/self/self.xlsx
+++ b/research/self/self.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/self/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9E85E-9F94-0F41-A070-9849887CFA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F701E055-A7C1-9245-81DB-8A6D1A44E30B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="25600" windowHeight="14080" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="1" xr2:uid="{EAFACA79-2713-F64A-93F0-32BC5F4A5388}"/>
   </bookViews>
   <sheets>
     <sheet name="waking_up_same_time" sheetId="1" r:id="rId1"/>
-    <sheet name="dunbar.html" sheetId="2" r:id="rId2"/>
+    <sheet name="melatonin" sheetId="3" r:id="rId2"/>
+    <sheet name="dunbar.html" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">dunbar.html!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">dunbar.html!$B$2:$B$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">[1]Sheet1!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">[1]Sheet1!$B$2:$B$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">[1]Sheet1!$C$2:$C$21</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>Wake</t>
   </si>
@@ -182,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,6 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,19 +1528,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1848,9 +1827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F375733F-5394-DB4F-AED7-03DF12AEFD30}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2625,6 +2604,367 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84922996-49EC-394C-BB6B-67D397B88DA3}">
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>44258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>44261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>44262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>44263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>44297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>44304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>44316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF26E21C-BD8D-FB4D-AE37-26E2E0C23703}">
   <dimension ref="A1:P37"/>
   <sheetViews>
